--- a/q1/o_data.xlsx
+++ b/q1/o_data.xlsx
@@ -40,13 +40,13 @@
     <t>Veggies Option</t>
   </si>
   <si>
-    <t>ajay</t>
-  </si>
-  <si>
-    <t>jhkasdh</t>
-  </si>
-  <si>
-    <t>hk</t>
+    <t>adarsh</t>
+  </si>
+  <si>
+    <t>asdgghjhkj</t>
+  </si>
+  <si>
+    <t>68768768</t>
   </si>
   <si>
     <t>Cheque</t>
@@ -55,13 +55,13 @@
     <t>Pickup</t>
   </si>
   <si>
-    <t>Thick</t>
-  </si>
-  <si>
-    <t>Hamburger</t>
-  </si>
-  <si>
-    <t>OnionsOlives</t>
+    <t>Hand Tossed</t>
+  </si>
+  <si>
+    <t>Pepperoni</t>
+  </si>
+  <si>
+    <t>MushroomsOlives</t>
   </si>
 </sst>
 </file>

--- a/q1/o_data.xlsx
+++ b/q1/o_data.xlsx
@@ -40,22 +40,22 @@
     <t>Veggies Option</t>
   </si>
   <si>
-    <t>adarsh</t>
-  </si>
-  <si>
-    <t>asdgghjhkj</t>
-  </si>
-  <si>
-    <t>68768768</t>
+    <t>askldjkl</t>
+  </si>
+  <si>
+    <t>jkljklj</t>
+  </si>
+  <si>
+    <t>kljk</t>
   </si>
   <si>
     <t>Cheque</t>
   </si>
   <si>
-    <t>Pickup</t>
-  </si>
-  <si>
-    <t>Hand Tossed</t>
+    <t>Home Delivery</t>
+  </si>
+  <si>
+    <t>Thick</t>
   </si>
   <si>
     <t>Pepperoni</t>

--- a/q1/o_data.xlsx
+++ b/q1/o_data.xlsx
@@ -40,16 +40,16 @@
     <t>Veggies Option</t>
   </si>
   <si>
-    <t>askldjkl</t>
-  </si>
-  <si>
-    <t>jkljklj</t>
-  </si>
-  <si>
-    <t>kljk</t>
-  </si>
-  <si>
-    <t>Cheque</t>
+    <t>Ajaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> akld</t>
+  </si>
+  <si>
+    <t>jlkjklajsd</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
   </si>
   <si>
     <t>Home Delivery</t>
@@ -58,10 +58,10 @@
     <t>Thick</t>
   </si>
   <si>
-    <t>Pepperoni</t>
-  </si>
-  <si>
-    <t>MushroomsOlives</t>
+    <t>Sausage</t>
+  </si>
+  <si>
+    <t>OnionsOlives</t>
   </si>
 </sst>
 </file>
